--- a/biology/Zoologie/Grand_corégone/Grand_corégone.xlsx
+++ b/biology/Zoologie/Grand_corégone/Grand_corégone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_cor%C3%A9gone</t>
+          <t>Grand_corégone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coregonus clupeaformis
 Le grand corégone, Coregonus clupeaformis,  est un poisson d'eau douce, membre de la famille des saumons. Il se retrouve dans de nombreux lacs du nord-est des États-Unis et du Canada, incluant la région des Grands Lacs. Ces poissons sont parfois élevés en aquaculture pour des fins commerciales et aussi péchés à la ligne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_cor%C3%A9gone</t>
+          <t>Grand_corégone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Corégone et Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite du retrait du couvert de glaciers il y a environ 15 000 ans, le grand corégone présent dans plusieurs refuges glaciaires a pu envahir les lacs nouvellement créés. Cela a mené à l'évolution de populations distinctes, si bien qu’aujourd’hui, on distingue deux formes principales (ou écotypes) du grand corégone. Un écotype dit normal, benthique, pouvant vivre une dizaine d’années et peser plusieurs kilogrammes; et un écotype nain, ne pesant qu’une centaine de grammes, limnétique et vivant habituellement 2-3 ans.
 Plusieurs groupes de recherche travaillent actuellement à comprendre l'histoire évolutive récente d'espèces de poissons comme les écotypes nains et normaux du corégone (voir aussi épinoche).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_cor%C3%A9gone</t>
+          <t>Grand_corégone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
